--- a/lib/exps/raw_data/dames_2016_c3h8_rcm_pressure_profile.xlsx
+++ b/lib/exps/raw_data/dames_2016_c3h8_rcm_pressure_profile.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mulvihcr/PycharmProjects/pythonProject/mechsimulator/lib/exps/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F6CB20-5EE3-7247-83BB-6B6629DFAED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA48A760-F253-4644-9338-A62CAF16A98C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41660" yWindow="1000" windowWidth="27240" windowHeight="16440" activeTab="2" xr2:uid="{AE5E4BAE-78E0-8444-8714-22483454DAF9}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20600" activeTab="2" xr2:uid="{AE5E4BAE-78E0-8444-8714-22483454DAF9}"/>
   </bookViews>
   <sheets>
     <sheet name="raw pressure" sheetId="1" r:id="rId1"/>
     <sheet name="final pressure" sheetId="2" r:id="rId2"/>
     <sheet name="final volume" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -80,7 +80,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -120,7 +120,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -5270,6 +5270,1480 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'final volume'!$F$1:$F$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="75"/>
+                <c:pt idx="0">
+                  <c:v>-33.064952476717103</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-28.815868227632901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-25.445665445665401</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-22.9543441308147</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-20.462783403959801</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-17.6777035600565</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-15.3319447437094</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-13.131987837870099</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-11.6646316646316</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-10.0500371088606</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-8.8747635806459293</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-7.8452919629390196</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-6.8151021092197501</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-6.2251909310732696</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-5.6343221049103303</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-5.0432138667432698</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-4.5981469510881299</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-4.3007972419737097</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-3.8557303263185498</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-3.4099451746510501</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-3.11139840551605</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-2.5174172232995802</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-2.2198281021810402</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.7776341305753101</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.48267854150207</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.89564030740501699</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.42351983528454401</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.03524144700615</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.9400033517680599</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.6975268739974601</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.1874117168234797</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10.6777753836577</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>13.460939931528101</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>16.683664918959</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>20.785750197514801</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>24.008954008953999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>29.136440901146699</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>32.213124566065702</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>35.582848524024897</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39.245373363020398</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42.615097320979601</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45.252220546338101</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>48.035863918216798</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>50.819507290095501</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>53.456630515454002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>55.3613924202159</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'final volume'!$G$1:$G$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="75"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97028078592366263</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91651585552094272</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.84749504020254973</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.75540994561945751</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.67094229193871191</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.57786041898402429</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.50995260432812362</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.44322185113933871</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.39009471255689809</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.34162747894012135</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.29920460882771843</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.27174070171174208</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.24452290483712835</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.22188516324659108</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.2019832680036438</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.18902784395751962</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.17499178703265736</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.16173028210383736</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.15177007967937842</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.13969558535423243</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.13368651972323425</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.13047033327607788</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.12824050984580887</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.12715807863739242</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.12657164148265998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.12662469689429273</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.12662469689429273</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.1274267130754094</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.12851444030283138</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.12906636032130786</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.1299045463087681</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.1307553586590168</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.13132972941858789</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.13161909763724905</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.13249607331194357</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.13279139507973337</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.13308823521204932</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.13368651972323425</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.13398798901801201</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.13429102651294039</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.13459564501401614</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.13490185746999575</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.13520967697441369</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.13520967697441369</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.13532048576985012</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.13551225561706967</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.13569036498639342</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.13585666557761367</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.13601265438433621</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.13615955909887831</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.13629839923030398</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.13643003078651056</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.13655517955944738</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.13667446633632965</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.13678842628091251</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.13689752403286989</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.13700216561369896</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.13710270791765466</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.13719946635327407</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.13729272105220808</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.13738272195640966</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.13746969301862974</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.13755383569564414</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.13763533187262517</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.13771434632644178</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.13779102881255653</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.13786551584257112</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.13793793220592862</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.13800839227877587</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.13807700115477911</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.13814385562622211</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.13820904503858658</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.1382726520377256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6B55-C74B-9EDD-D951AA0E4BBA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1427605472"/>
+        <c:axId val="1427626496"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1427605472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1427626496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1427626496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1427605472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'final volume'!$B$1:$B$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="75"/>
+                <c:pt idx="0">
+                  <c:v>-33.064952476717103</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-28.815868227632901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-25.445665445665401</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-22.9543441308147</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-20.462783403959801</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-17.6777035600565</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-15.3319447437094</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-13.131987837870099</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-11.6646316646316</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-10.0500371088606</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-8.8747635806459293</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-7.8452919629390196</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-6.8151021092197501</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-6.2251909310732696</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-5.6343221049103303</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-5.0432138667432698</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-4.5981469510881299</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-4.3007972419737097</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-3.8557303263185498</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-3.4099451746510501</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-3.11139840551605</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-2.5174172232995802</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-2.2198281021810402</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.7776341305753101</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.48267854150207</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.89564030740501699</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.42351983528454401</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.03524144700615</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.9400033517680599</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.6975268739974601</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.1874117168234797</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10.6777753836577</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>13.460939931528101</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>16.683664918959</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>20.785750197514801</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>24.008954008953999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>29.136440901146699</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>32.213124566065702</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>35.582848524024897</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39.245373363020398</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42.615097320979601</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45.252220546338101</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>48.035863918216798</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>50.819507290095501</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>53.456630515454002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>55.3613924202159</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'final volume'!$C$1:$C$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="75"/>
+                <c:pt idx="0">
+                  <c:v>2.0424836601307201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0424836601307201</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1241830065359499</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2875816993464002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5326797385620901</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.9411764705882302</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.4313725490196001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.1666666666666696</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.9019607843137196</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.8823529411764701</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.9444444444444402</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.2516339869281001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.8039215686274499</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.1111111111111</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12.7450980392156</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14.4607843137254</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.339869281045701</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17.810457516339799</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.689542483660102</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21.813725490195999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23.692810457516298</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26.3888888888888</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27.9411764705882</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28.839869281045701</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29.4934640522875</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>29.820261437908499</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29.983660130718899</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29.983660130718899</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29.738562091503201</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>29.411764705882302</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>29.248366013071799</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>29.0032679738562</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>28.758169934640499</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>28.594771241829999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>28.513071895424801</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>28.2679738562091</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>28.186274509803901</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>28.1045751633986</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>27.9411764705882</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>27.859477124183002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>27.7777777777777</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>27.696078431372499</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>27.6143790849673</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>27.532679738561999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>27.532679738561999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>27.503374236675629</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>27.452787245425956</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>27.405951007024804</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>27.362347512245051</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>27.321559166886104</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>27.283244405898117</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>27.247120288351269</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>27.212949804508455</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>27.180532442455522</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>27.149697058700443</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>27.12029640881919</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>27.092202894874422</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>27.065305218561743</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>27.039505718024941</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>27.01471822731207</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>26.990866340026908</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>26.967881988910918</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>26.945704274790195</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>26.924278494131165</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>26.903555326107032</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>26.883490148772218</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>26.864042460494829</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>26.845175387784231</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>26.826855264480336</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>26.809051270237383</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>26.791735118550498</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>26.774880786394569</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>26.758464278987709</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>26.74246342434164</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E53C-D142-B77A-B670D16BF0BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1406643632"/>
+        <c:axId val="1406645280"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1406643632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1406645280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1406645280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1406643632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5470,6 +6944,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -7535,6 +9089,1038 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8235,6 +10821,83 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>692150</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BDB0047-F829-A826-7870-A50046ED2171}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ED94581-4859-AA21-633E-397CCAAAE680}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9510,7 +12173,7 @@
         <v>65</v>
       </c>
       <c r="E48">
-        <f t="shared" ref="E48:E109" si="0">29.73*EXP(-0.001516*D48)</f>
+        <f t="shared" ref="E48:E75" si="0">29.73*EXP(-0.001516*D48)</f>
         <v>26.940120315057285</v>
       </c>
       <c r="F48">
@@ -10833,8 +13496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D6CFB8-2026-CD4A-83FA-DB65BD63E7DC}">
   <dimension ref="A1:CG75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K15:K16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12440,5 +15103,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>